--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1492161.826702076</v>
+        <v>1493265.072524115</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5818732.89073184</v>
+        <v>5872973.502901817</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06123644836277208</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>196.5224065022248</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>39.04589723677579</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>97.83533088294783</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1864,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1923,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>166.1199809871572</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.778646031951277</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.6606480049634</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>126.0947718286371</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>190.0939048321462</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>36.40754942051851</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,56 +2803,56 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>234.288905720311</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.48766447978133</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>33.51003907654566</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.529575518559294</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.93468111259986</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>176.1919908257736</v>
       </c>
     </row>
     <row r="37">
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,37 +3678,37 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>28.72815266929518</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.15541836171551</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>67.46006253383348</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.0201173812374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="D2" t="n">
-        <v>466.1017926944764</v>
+        <v>124.457110779899</v>
       </c>
       <c r="E2" t="n">
-        <v>258.5080104335871</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>251.5625096843836</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>124.457110779899</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>415.1460457653264</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>618.608711759224</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>432.3831247296267</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>224.7893424687375</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.4380211865037</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>246.4380211865037</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>246.4380211865037</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>246.4380211865037</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>239.4925204373003</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>454.031803447393</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>454.031803447393</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.4380211865037</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>232.5025681519757</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.8907214957869</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>245.4092504478133</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>50.91422817269779</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.91422817269779</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8288664974407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W9" t="n">
-        <v>508.0442035175087</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X9" t="n">
-        <v>508.0442035175087</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.0442035175087</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>723.2478112046895</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>574.3134015434382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>415.0759465379826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>268.5413885648676</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>521.6723209211027</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>521.6723209211027</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.8505943024719</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
         <v>31.35113235729608</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>956.199937296544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>956.199937296544</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>956.199937296544</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.8505943024719</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>814.904985808653</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>612.718391167419</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>612.718391167419</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>612.718391167419</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>612.718391167419</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6403,7 +6405,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.787934186969</v>
+        <v>478.9995557818393</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>868.6150701775238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>868.6150701775238</v>
+        <v>930.2086311908931</v>
       </c>
       <c r="T30" t="n">
-        <v>868.6150701775238</v>
+        <v>930.2086311908931</v>
       </c>
       <c r="U30" t="n">
-        <v>868.6150701775238</v>
+        <v>930.2086311908931</v>
       </c>
       <c r="V30" t="n">
-        <v>868.6150701775238</v>
+        <v>930.2086311908931</v>
       </c>
       <c r="W30" t="n">
-        <v>868.6150701775238</v>
+        <v>686.7598545467931</v>
       </c>
       <c r="X30" t="n">
-        <v>660.7635699719909</v>
+        <v>686.7598545467931</v>
       </c>
       <c r="Y30" t="n">
-        <v>453.003271207037</v>
+        <v>478.9995557818393</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>480.5830965768621</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>331.6486869156108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>172.4112319101553</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.8341334011449</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>876.2443463059899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>674.0577516647559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>445.8341334011449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>445.8341334011449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>445.8341334011449</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>445.8341334011449</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>445.8341334011449</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7120,13 +7122,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>820.6018937426884</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X39" t="n">
-        <v>90.64333416851576</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.697218590109</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C42" t="n">
-        <v>204.697218590109</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D42" t="n">
-        <v>204.697218590109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>45.45976358465353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V42" t="n">
-        <v>412.2910008509983</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>895.9156782037337</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>212.7243290316435</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8221,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>154.8597658442563</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>33.22632384066939</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="15">
@@ -23574,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>74.87316810536791</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,7 +23752,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23811,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>34.04474770766441</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.212053182593527</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>24.02252309887444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>73.57837224961185</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>46.61372715967865</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,13 +24338,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>42.7066823172791</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9359677426921</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.670169672861803</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>138.1731320272922</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>82.86705733285578</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>84.74848999123796</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.49070495153072</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25476,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>29.66246195356948</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>135.0341266295844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>116.3410597240887</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.0093103331061</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25804,10 +25806,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>158.4813195471413</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911084.8431095048</v>
+        <v>909249.1102294431</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911084.8431095048</v>
+        <v>911513.5254223505</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>911084.8431095048</v>
+        <v>911513.5254223505</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355005.7082956425</v>
+        <v>373921.05814057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355005.7082956425</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373921.05814057</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373921.0581405699</v>
+        <v>373921.05814057</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373921.0581405698</v>
+        <v>373921.05814057</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373921.05814057</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355005.7082956425</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355005.7082956427</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.150411784</v>
-      </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26332,7 +26334,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="J2" t="n">
         <v>216008.8742907321</v>
@@ -26344,16 +26346,16 @@
         <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="N2" t="n">
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296630.5819651741</v>
+        <v>335761.7110049645</v>
       </c>
       <c r="C4" t="n">
-        <v>296630.5819651741</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="D4" t="n">
-        <v>296630.5819651741</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.707817725994</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26439,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122049.726923073</v>
+        <v>143100.9983836134</v>
       </c>
       <c r="C6" t="n">
-        <v>190923.4835047628</v>
+        <v>137326.9207575526</v>
       </c>
       <c r="D6" t="n">
-        <v>190923.4835047625</v>
+        <v>197903.2429442208</v>
       </c>
       <c r="E6" t="n">
-        <v>184496.7416258376</v>
+        <v>192808.094457628</v>
       </c>
       <c r="F6" t="n">
-        <v>184496.7416258377</v>
+        <v>192808.094457628</v>
       </c>
       <c r="G6" t="n">
-        <v>183079.0514834609</v>
+        <v>192808.094457628</v>
       </c>
       <c r="H6" t="n">
         <v>192808.094457628</v>
       </c>
       <c r="I6" t="n">
-        <v>192808.0944576279</v>
+        <v>192808.094457628</v>
       </c>
       <c r="J6" t="n">
-        <v>139035.5835674186</v>
+        <v>178806.8623173487</v>
       </c>
       <c r="K6" t="n">
+        <v>144551.1415239954</v>
+      </c>
+      <c r="L6" t="n">
+        <v>192808.0944576281</v>
+      </c>
+      <c r="M6" t="n">
         <v>192808.094457628</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>192808.094457628</v>
       </c>
-      <c r="M6" t="n">
-        <v>192808.0944576279</v>
-      </c>
-      <c r="N6" t="n">
-        <v>192808.0944576281</v>
-      </c>
       <c r="O6" t="n">
-        <v>184496.7416258377</v>
+        <v>192808.094457628</v>
       </c>
       <c r="P6" t="n">
-        <v>184496.7416258377</v>
+        <v>192808.094457628</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>207.7909968509046</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>187.9113033667801</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>86.21436345804264</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>186.4133429237194</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>138.7867036770776</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>190.3996345930221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.4719472015046</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>58.7955808554722</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>212.6490859241438</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>70.5902951096252</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1493265.072524115</v>
+        <v>1424413.776082678</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>35.18454619735122</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>53.51252900994975</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.44046883036203</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="I4" t="n">
         <v>53.51252900994975</v>
@@ -843,7 +843,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>52.42556848774763</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>80.15944383584244</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>172.0093569884556</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,58 +1144,58 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>198.7050131246913</v>
+      </c>
+      <c r="I8" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>196.5224065022248</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>26.23921687579552</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>197.0267637357615</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,58 +2001,58 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>131.8543679266297</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>126.0947718286371</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,70 +2560,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>176.6914047967351</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>33.51003907654566</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,17 +3274,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>82.44930413200341</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.1919908257736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,70 +3739,70 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>19.15541836171551</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3988,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>67.46006253383348</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>124.457110779899</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4333,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>110.2358097604965</v>
-      </c>
-      <c r="M2" t="n">
-        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
         <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>124.457110779899</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4418,13 +4418,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4436,25 +4436,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="4">
@@ -4482,13 +4482,13 @@
         <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3871215328157</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>444.665175483657</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>462.1935501069094</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5065,19 +5065,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
         <v>506.1786963984129</v>
@@ -5086,7 +5086,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.77296163243852</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C12" t="n">
-        <v>76.77296163243852</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D12" t="n">
-        <v>76.77296163243852</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E12" t="n">
-        <v>76.77296163243852</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>76.77296163243852</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>76.77296163243852</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>76.77296163243852</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>492.3847606029253</v>
+        <v>937.5528960401357</v>
       </c>
       <c r="X12" t="n">
-        <v>284.5332603973924</v>
+        <v>729.7013958346029</v>
       </c>
       <c r="Y12" t="n">
-        <v>76.77296163243852</v>
+        <v>521.941097069649</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5323,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,25 +5700,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5782,22 +5782,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>153.2215059919174</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="22">
@@ -5940,16 +5940,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>555.4877027295624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>428.1192463369997</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1848366757484</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>279.1848366757484</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>555.4877027295624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>555.4877027295624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>555.4877027295624</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6177,10 +6177,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>785.5809890492876</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>550.428880817545</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="28">
@@ -6408,10 +6408,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>478.9995557818393</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>930.2086311908931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>930.2086311908931</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>930.2086311908931</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>930.2086311908931</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>686.7598545467931</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>686.7598545467931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>478.9995557818393</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>408.3352814746453</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>408.3352814746453</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>249.0978264691898</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>102.5632684960748</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>102.5632684960748</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.7851707561815</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>820.6018937426884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>820.6018937426884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>820.6018937426884</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>820.6018937426884</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>577.1531170985884</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7493,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>670.1213740781145</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>670.1213740781145</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>670.1213740781145</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>670.1213740781145</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>895.9156782037337</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>660.7635699719909</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W45" t="n">
-        <v>660.7635699719909</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X45" t="n">
-        <v>660.7635699719909</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y45" t="n">
-        <v>453.003271207037</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="46">
@@ -7836,10 +7836,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
@@ -7990,13 +7990,13 @@
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,7 +8066,7 @@
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8075,7 +8075,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>33.22632384066939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>225.4557662851241</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>54.66821942515813</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23788,13 +23788,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>70.26853576158751</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>13.21484446675416</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>73.57837224961185</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>149.1294050414824</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>46.61372715967865</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>103.403600082762</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24417,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,7 +24448,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>105.1858963954562</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>100.9359677426921</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>49.24997728423969</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24648,13 +24648,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>172.5871400214005</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24730,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>138.1731320272922</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>29.78614010449306</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.49070495153072</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>118.392647926014</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>29.66246195356948</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0093103331061</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25806,10 +25806,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H44" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>104.0983162303811</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>158.4813195471413</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26076,13 +26076,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373921.0581405699</v>
+        <v>373921.05814057</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373921.05814057</v>
+        <v>373921.0581405698</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373921.05814057</v>
+        <v>373921.0581405699</v>
       </c>
     </row>
     <row r="15">
@@ -26319,10 +26319,10 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="F2" t="n">
         <v>216008.8742907321</v>
@@ -26349,10 +26349,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="N2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="O2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="P2" t="n">
         <v>216008.8742907321</v>
@@ -26438,7 +26438,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26527,43 +26527,43 @@
         <v>137326.9207575526</v>
       </c>
       <c r="D6" t="n">
-        <v>197903.2429442208</v>
+        <v>197903.2429442207</v>
       </c>
       <c r="E6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="F6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="G6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="H6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="I6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="J6" t="n">
-        <v>178806.8623173487</v>
+        <v>166588.8516973083</v>
       </c>
       <c r="K6" t="n">
-        <v>144551.1415239954</v>
+        <v>132333.1309039549</v>
       </c>
       <c r="L6" t="n">
-        <v>192808.0944576281</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="M6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="N6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375874</v>
       </c>
       <c r="O6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
       <c r="P6" t="n">
-        <v>192808.094457628</v>
+        <v>180590.0838375875</v>
       </c>
     </row>
   </sheetData>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,7 +27432,7 @@
         <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>187.9113033667801</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,10 +27517,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>186.4133429237194</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1824541509698</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>152.2604561935277</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>138.7867036770776</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
         <v>101.9379459173085</v>
@@ -27563,7 +27563,7 @@
         <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8771690273874</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>171.1862090719941</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>79.685626172464</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>115.2022481737659</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.2441285387757</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>140.7697889910758</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,25 +27897,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>29.41897557874998</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
@@ -34710,13 +34710,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>51.35040662570936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
